--- a/data_output/prism_passive/all_passive_out_length_msc_GM_Fuku_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_GM_Fuku_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,130 +513,130 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>63.119711074457207</v>
+        <v>63.119711063537757</v>
       </c>
       <c r="C2">
-        <v>66.163870453873727</v>
+        <v>66.163870442841002</v>
       </c>
       <c r="D2">
-        <v>53.460250935400722</v>
+        <v>53.460250908477541</v>
       </c>
       <c r="E2">
-        <v>69.539222140577195</v>
+        <v>69.539222131582321</v>
       </c>
       <c r="F2">
-        <v>44.358225728481123</v>
+        <v>44.358225721199759</v>
       </c>
       <c r="G2">
-        <v>56.0371639227806</v>
+        <v>56.037163925911578</v>
       </c>
       <c r="H2">
-        <v>47.933406997850405</v>
+        <v>47.933406982783538</v>
       </c>
       <c r="I2">
-        <v>57.820484206458715</v>
+        <v>57.820484216266884</v>
       </c>
       <c r="J2">
-        <v>67.022723793202786</v>
+        <v>67.022723771491641</v>
       </c>
       <c r="K2">
-        <v>54.038297876455005</v>
+        <v>54.038297886228641</v>
       </c>
       <c r="L2">
-        <v>52.153477344974569</v>
+        <v>52.153477336232299</v>
       </c>
       <c r="N2">
-        <v>60.695248349298041</v>
+        <v>60.695248348759328</v>
       </c>
       <c r="O2">
-        <v>48.204556965609413</v>
+        <v>48.204556939412974</v>
       </c>
       <c r="P2">
-        <v>57.728622232036933</v>
+        <v>57.728622222866733</v>
       </c>
       <c r="Q2">
-        <v>61.087644923189202</v>
+        <v>61.08764488913571</v>
       </c>
       <c r="S2">
-        <v>81.442576603333677</v>
+        <v>81.442576442471918</v>
       </c>
       <c r="V2">
-        <v>49.409927993149289</v>
+        <v>49.409927960017576</v>
       </c>
       <c r="W2">
-        <v>42.949330944899408</v>
+        <v>42.949330926121576</v>
       </c>
       <c r="X2">
-        <v>56.015314458572163</v>
+        <v>56.015314438618837</v>
       </c>
       <c r="AA2">
-        <v>69.387644414898631</v>
+        <v>69.387644382361088</v>
       </c>
       <c r="AB2">
-        <v>72.602510037908857</v>
+        <v>72.602509978323994</v>
       </c>
       <c r="AC2">
-        <v>49.967763130502199</v>
+        <v>49.967763131795884</v>
       </c>
       <c r="AD2">
-        <v>73.39653886661138</v>
+        <v>73.396538799522617</v>
       </c>
       <c r="AE2">
-        <v>50.481801921266097</v>
+        <v>50.481801919032023</v>
       </c>
       <c r="AF2">
-        <v>59.247615725850814</v>
+        <v>59.24761572033146</v>
       </c>
       <c r="AG2">
-        <v>51.751522942530237</v>
+        <v>51.751522912106246</v>
       </c>
       <c r="AH2">
-        <v>61.402029307393725</v>
+        <v>61.402029261903216</v>
       </c>
       <c r="AI2">
-        <v>75.085259084145747</v>
+        <v>75.085259017813854</v>
       </c>
       <c r="AJ2">
-        <v>53.652050378879068</v>
+        <v>53.652050366845316</v>
       </c>
       <c r="AK2">
-        <v>57.302288203927759</v>
+        <v>57.302288174755368</v>
       </c>
       <c r="AL2">
-        <v>69.807454543312105</v>
+        <v>69.807454512760629</v>
       </c>
       <c r="AM2">
-        <v>62.204696915729038</v>
+        <v>62.204696858764812</v>
       </c>
       <c r="AN2">
-        <v>51.680545339624977</v>
+        <v>51.680545304071345</v>
       </c>
       <c r="AO2">
-        <v>64.653095557145818</v>
+        <v>64.653095505130537</v>
       </c>
       <c r="AQ2">
-        <v>56.084878276286901</v>
+        <v>56.084878227406591</v>
       </c>
       <c r="AR2">
-        <v>82.189916936433704</v>
+        <v>82.189916954451718</v>
       </c>
       <c r="AS2">
-        <v>66.718099940999934</v>
+        <v>66.71809988398708</v>
       </c>
       <c r="AU2">
-        <v>56.604894900949773</v>
+        <v>56.604894873229043</v>
       </c>
       <c r="AV2">
-        <v>51.19970719716796</v>
+        <v>51.199707131518011</v>
       </c>
       <c r="AW2">
-        <v>54.988107872987889</v>
+        <v>54.988107832884971</v>
       </c>
       <c r="AX2">
-        <v>66.403548408641967</v>
+        <v>66.403548383053021</v>
       </c>
       <c r="AY2">
-        <v>67.112592671297307</v>
+        <v>67.112592623617033</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -649,121 +644,121 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>65.767778508967666</v>
+        <v>65.767778480346763</v>
       </c>
       <c r="C3">
-        <v>59.169334190270284</v>
+        <v>59.169334158326485</v>
       </c>
       <c r="E3">
-        <v>65.567357535547231</v>
+        <v>65.567357519731999</v>
       </c>
       <c r="F3">
-        <v>42.18910909070371</v>
+        <v>42.189109070113581</v>
       </c>
       <c r="G3">
-        <v>60.225601088444158</v>
+        <v>60.22560106946284</v>
       </c>
       <c r="H3">
-        <v>44.383095036341565</v>
+        <v>44.383095027654853</v>
       </c>
       <c r="J3">
-        <v>72.953904312579141</v>
+        <v>72.953904258153997</v>
       </c>
       <c r="K3">
-        <v>66.262652982667888</v>
+        <v>66.262652964462916</v>
       </c>
       <c r="L3">
-        <v>57.68650491992824</v>
+        <v>57.686504883971168</v>
       </c>
       <c r="M3">
-        <v>66.835420543148146</v>
+        <v>66.835293818692463</v>
       </c>
       <c r="N3">
-        <v>62.614716940589616</v>
+        <v>62.614716913945692</v>
       </c>
       <c r="P3">
-        <v>62.756988577997056</v>
+        <v>62.756988521665207</v>
       </c>
       <c r="Q3">
-        <v>54.798872316859182</v>
+        <v>54.798872291911948</v>
       </c>
       <c r="R3">
-        <v>46.53356096440622</v>
+        <v>46.533560905799668</v>
       </c>
       <c r="W3">
-        <v>49.527426804463431</v>
+        <v>49.527426757690698</v>
       </c>
       <c r="AA3">
-        <v>69.338481409115943</v>
+        <v>69.338481366332616</v>
       </c>
       <c r="AB3">
-        <v>67.677077953902625</v>
+        <v>67.677077917806187</v>
       </c>
       <c r="AC3">
-        <v>57.589444181934077</v>
+        <v>57.589444173082796</v>
       </c>
       <c r="AD3">
-        <v>74.580419142056826</v>
+        <v>74.580419115566983</v>
       </c>
       <c r="AE3">
-        <v>51.913795959619307</v>
+        <v>51.913795950267058</v>
       </c>
       <c r="AF3">
-        <v>62.728158185626455</v>
+        <v>62.7281581592229</v>
       </c>
       <c r="AG3">
-        <v>52.096568987263062</v>
+        <v>52.096568950259716</v>
       </c>
       <c r="AH3">
-        <v>69.638083085034737</v>
+        <v>69.638083040752832</v>
       </c>
       <c r="AI3">
-        <v>92.838692433839284</v>
+        <v>92.838692428963256</v>
       </c>
       <c r="AJ3">
-        <v>59.415144954068751</v>
+        <v>59.415144916679068</v>
       </c>
       <c r="AK3">
-        <v>64.719210266494471</v>
+        <v>64.719210238091264</v>
       </c>
       <c r="AL3">
-        <v>68.138730114201834</v>
+        <v>68.138730061258684</v>
       </c>
       <c r="AM3">
-        <v>68.907176213958238</v>
+        <v>68.907176142786881</v>
       </c>
       <c r="AN3">
-        <v>44.503691675359349</v>
+        <v>44.503691647287852</v>
       </c>
       <c r="AO3">
-        <v>68.366425879398534</v>
+        <v>68.366425856810579</v>
       </c>
       <c r="AP3">
-        <v>56.771226731502708</v>
+        <v>56.771226697471548</v>
       </c>
       <c r="AQ3">
-        <v>53.199062187025376</v>
+        <v>53.199062153648924</v>
       </c>
       <c r="AS3">
-        <v>60.233397979572928</v>
+        <v>60.233397970056281</v>
       </c>
       <c r="AT3">
-        <v>65.82744817097857</v>
+        <v>65.827448132881571</v>
       </c>
       <c r="AU3">
-        <v>53.788311968262327</v>
+        <v>53.788311958354164</v>
       </c>
       <c r="AV3">
-        <v>49.76916581792802</v>
+        <v>49.769165787927413</v>
       </c>
       <c r="AW3">
-        <v>54.718453700379115</v>
+        <v>54.71845366879775</v>
       </c>
       <c r="AX3">
-        <v>59.001106943818144</v>
+        <v>59.001106909384134</v>
       </c>
       <c r="AY3">
-        <v>75.408500620622078</v>
+        <v>75.408500577362233</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_length_msc_GM_Fuku_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_GM_Fuku_submax_1.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,56 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>63.119711063537757</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>66.163870442841002</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>53.460250908477541</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>69.539222131582321</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>44.358225721199759</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>56.037163925911578</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>47.933406982783538</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>57.820484216266884</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>67.022723771491641</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>54.038297886228641</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>52.153477336232299</v>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>60.695248348759328</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>48.204556939412974</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>57.728622222866733</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>61.08764488913571</v>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>81.442576442471918</v>
+        <v>73.273541611812576</v>
       </c>
       <c r="V2">
         <v>49.409927960017576</v>
@@ -570,52 +465,55 @@
         <v>56.015314438618837</v>
       </c>
       <c r="AA2">
-        <v>69.387644382361088</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>72.602509978323994</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>49.967763131795884</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>73.396538799522617</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>50.481801919032023</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>59.24761572033146</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>51.751522912106246</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>61.402029261903216</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>75.085259017813854</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>53.652050366845316</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>57.302288174755368</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>69.807454512760629</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>62.204696858764812</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>51.680545304071345</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>64.653095505130537</v>
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>56.084878227406591</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>82.189916954451718</v>
@@ -640,104 +538,110 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>65.767778480346763</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>59.169334158326485</v>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>65.567357519731999</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>42.189109070113581</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>60.22560106946284</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>44.383095027654853</v>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>72.953904258153997</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>66.262652964462916</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>57.686504883971168</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>66.835293818692463</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>62.614716913945692</v>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>62.756988521665207</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>54.798872291911948</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>46.533560905799668</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>49.527426757690698</v>
       </c>
       <c r="AA3">
-        <v>69.338481366332616</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>67.677077917806187</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>57.589444173082796</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>74.580419115566983</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>51.913795950267058</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>62.7281581592229</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>52.096568950259716</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>69.638083040752832</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>92.838692428963256</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>59.415144916679068</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>64.719210238091264</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>68.138730061258684</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>68.907176142786881</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>44.503691647287852</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>68.366425856810579</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>56.771226697471548</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>53.199062153648924</v>
+        <v>0</v>
       </c>
       <c r="AS3">
         <v>60.233397970056281</v>

--- a/data_output/prism_passive/all_passive_out_length_msc_GM_Fuku_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_GM_Fuku_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>63.119711074457207</v>
-      </c>
-      <c r="C2">
-        <v>63.778163443457153</v>
+        <v>48.204556939412974</v>
       </c>
       <c r="D2">
-        <v>53.460250935400722</v>
+        <v>51.680545304071345</v>
       </c>
       <c r="E2">
-        <v>69.539222140577195</v>
+        <v>56.084878227406591</v>
       </c>
       <c r="F2">
         <v>44.358225728481123</v>
@@ -648,14 +640,14 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>65.767778508967666</v>
-      </c>
       <c r="C3">
-        <v>59.169334190270284</v>
+        <v>46.533560905799668</v>
+      </c>
+      <c r="D3">
+        <v>45.332565871072198</v>
       </c>
       <c r="E3">
-        <v>65.567357535547231</v>
+        <v>54.100473278624925</v>
       </c>
       <c r="F3">
         <v>42.18910909070371</v>

--- a/data_output/prism_passive/all_passive_out_length_msc_GM_Fuku_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_GM_Fuku_submax_1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>63.119711074457207</v>
+        <v>59.749293518213648</v>
       </c>
       <c r="C2">
-        <v>63.778163443457153</v>
+        <v>48.204556939412974</v>
       </c>
       <c r="D2">
-        <v>53.460250935400722</v>
+        <v>62.204696858764812</v>
       </c>
       <c r="E2">
-        <v>69.539222140577195</v>
+        <v>51.680545304071345</v>
       </c>
       <c r="F2">
         <v>44.358225728481123</v>
@@ -646,13 +641,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>65.767778508967666</v>
-      </c>
-      <c r="C3">
-        <v>59.169334190270284</v>
+        <v>62.614716913945692</v>
+      </c>
+      <c r="D3">
+        <v>68.907176142786881</v>
       </c>
       <c r="E3">
-        <v>71.284346530290492</v>
+        <v>45.332565871072198</v>
       </c>
       <c r="F3">
         <v>42.18910909070371</v>

--- a/data_output/prism_passive/all_passive_out_length_msc_GM_Fuku_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_GM_Fuku_submax_1.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,127 +513,127 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>63.119711063537757</v>
+      </c>
+      <c r="C2">
+        <v>63.778163434799673</v>
+      </c>
+      <c r="D2">
+        <v>53.460250908477541</v>
+      </c>
+      <c r="E2">
+        <v>69.539222131582321</v>
+      </c>
+      <c r="F2">
+        <v>44.358225721199759</v>
+      </c>
+      <c r="G2">
+        <v>59.735233988233951</v>
+      </c>
+      <c r="H2">
+        <v>47.933406982783538</v>
+      </c>
+      <c r="I2">
+        <v>61.738882847309945</v>
+      </c>
+      <c r="J2">
+        <v>67.022723771491641</v>
+      </c>
+      <c r="K2">
+        <v>54.038297886228641</v>
+      </c>
+      <c r="L2">
+        <v>52.358894272823534</v>
+      </c>
+      <c r="N2">
         <v>59.749293518213648</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>48.204556939412974</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>59.088854380565586</v>
+      </c>
+      <c r="Q2">
+        <v>61.08764488913571</v>
+      </c>
+      <c r="V2">
+        <v>52.298183429655879</v>
+      </c>
+      <c r="W2">
+        <v>42.949330926121576</v>
+      </c>
+      <c r="X2">
+        <v>56.015314438618837</v>
+      </c>
+      <c r="AA2">
+        <v>69.387644382361088</v>
+      </c>
+      <c r="AB2">
+        <v>72.602509978323994</v>
+      </c>
+      <c r="AC2">
+        <v>49.967763131795884</v>
+      </c>
+      <c r="AD2">
+        <v>73.396538799522617</v>
+      </c>
+      <c r="AE2">
+        <v>50.481801919032023</v>
+      </c>
+      <c r="AF2">
+        <v>59.24761572033146</v>
+      </c>
+      <c r="AG2">
+        <v>51.751522912106246</v>
+      </c>
+      <c r="AH2">
+        <v>61.402029261903216</v>
+      </c>
+      <c r="AI2">
+        <v>75.085259017813854</v>
+      </c>
+      <c r="AJ2">
+        <v>53.652050366845316</v>
+      </c>
+      <c r="AK2">
+        <v>57.302288174755368</v>
+      </c>
+      <c r="AL2">
+        <v>69.807454512760629</v>
+      </c>
+      <c r="AM2">
         <v>62.204696858764812</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>51.680545304071345</v>
       </c>
-      <c r="F2">
-        <v>44.358225728481123</v>
-      </c>
-      <c r="G2">
-        <v>59.735233986157887</v>
-      </c>
-      <c r="H2">
-        <v>47.933406997850405</v>
-      </c>
-      <c r="I2">
-        <v>61.738882831800417</v>
-      </c>
-      <c r="J2">
-        <v>67.022723793202786</v>
-      </c>
-      <c r="K2">
-        <v>54.038297876455005</v>
-      </c>
-      <c r="L2">
-        <v>52.358894289344413</v>
-      </c>
-      <c r="N2">
-        <v>59.749293523527236</v>
-      </c>
-      <c r="O2">
-        <v>48.204556965609413</v>
-      </c>
-      <c r="P2">
-        <v>59.088854382780156</v>
-      </c>
-      <c r="Q2">
-        <v>61.087644923189202</v>
-      </c>
-      <c r="V2">
-        <v>52.298183477789728</v>
-      </c>
-      <c r="W2">
-        <v>42.949330944899408</v>
-      </c>
-      <c r="X2">
-        <v>56.015314458572163</v>
-      </c>
-      <c r="AA2">
-        <v>69.387644414898631</v>
-      </c>
-      <c r="AB2">
-        <v>72.602510037908857</v>
-      </c>
-      <c r="AC2">
-        <v>49.967763130502199</v>
-      </c>
-      <c r="AD2">
-        <v>73.39653886661138</v>
-      </c>
-      <c r="AE2">
-        <v>50.481801921266097</v>
-      </c>
-      <c r="AF2">
-        <v>59.247615725850814</v>
-      </c>
-      <c r="AG2">
-        <v>51.751522942530237</v>
-      </c>
-      <c r="AH2">
-        <v>61.402029307393725</v>
-      </c>
-      <c r="AI2">
-        <v>75.085259084145747</v>
-      </c>
-      <c r="AJ2">
-        <v>53.652050378879068</v>
-      </c>
-      <c r="AK2">
-        <v>57.302288203927759</v>
-      </c>
-      <c r="AL2">
-        <v>69.807454543312105</v>
-      </c>
-      <c r="AM2">
-        <v>62.204696915729038</v>
-      </c>
-      <c r="AN2">
-        <v>51.680545339624977</v>
-      </c>
       <c r="AO2">
-        <v>64.653095557145818</v>
+        <v>64.653095505130537</v>
       </c>
       <c r="AQ2">
-        <v>56.084878276286901</v>
+        <v>56.084878227406591</v>
       </c>
       <c r="AR2">
-        <v>82.189916936433704</v>
+        <v>82.189916954451718</v>
       </c>
       <c r="AS2">
-        <v>66.718099940999934</v>
+        <v>66.71809988398708</v>
       </c>
       <c r="AU2">
-        <v>50.935559505278633</v>
+        <v>50.935559466182312</v>
       </c>
       <c r="AV2">
-        <v>51.19970719716796</v>
+        <v>51.199707131518011</v>
       </c>
       <c r="AW2">
-        <v>54.988107872987889</v>
+        <v>54.988107832884971</v>
       </c>
       <c r="AX2">
-        <v>66.403548408641967</v>
+        <v>66.403548383053021</v>
       </c>
       <c r="AY2">
-        <v>67.112592671297307</v>
+        <v>67.112592623617033</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -641,121 +641,121 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>65.767778480346763</v>
+      </c>
+      <c r="C3">
+        <v>59.169334158326485</v>
+      </c>
+      <c r="E3">
+        <v>71.284346534737608</v>
+      </c>
+      <c r="F3">
+        <v>42.189109070113581</v>
+      </c>
+      <c r="G3">
+        <v>60.22560106946284</v>
+      </c>
+      <c r="H3">
+        <v>44.383095027654853</v>
+      </c>
+      <c r="J3">
+        <v>72.953904258153997</v>
+      </c>
+      <c r="K3">
+        <v>65.122477959519912</v>
+      </c>
+      <c r="L3">
+        <v>57.686504883971168</v>
+      </c>
+      <c r="M3">
+        <v>63.063342276767216</v>
+      </c>
+      <c r="N3">
         <v>62.614716913945692</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>62.756988521665207</v>
+      </c>
+      <c r="Q3">
+        <v>54.798872291911948</v>
+      </c>
+      <c r="R3">
+        <v>46.533560905799668</v>
+      </c>
+      <c r="W3">
+        <v>49.527426757690698</v>
+      </c>
+      <c r="AA3">
+        <v>69.338481366332616</v>
+      </c>
+      <c r="AB3">
+        <v>67.677077917806187</v>
+      </c>
+      <c r="AC3">
+        <v>57.589444173082796</v>
+      </c>
+      <c r="AD3">
+        <v>74.580419115566983</v>
+      </c>
+      <c r="AE3">
+        <v>51.913795950267058</v>
+      </c>
+      <c r="AF3">
+        <v>62.7281581592229</v>
+      </c>
+      <c r="AG3">
+        <v>52.096568950259716</v>
+      </c>
+      <c r="AH3">
+        <v>69.638083040752832</v>
+      </c>
+      <c r="AI3">
+        <v>69.518131705567384</v>
+      </c>
+      <c r="AJ3">
+        <v>59.415144916679068</v>
+      </c>
+      <c r="AK3">
+        <v>64.719210238091264</v>
+      </c>
+      <c r="AL3">
+        <v>68.138730061258684</v>
+      </c>
+      <c r="AM3">
         <v>68.907176142786881</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>45.332565871072198</v>
       </c>
-      <c r="F3">
-        <v>42.18910909070371</v>
-      </c>
-      <c r="G3">
-        <v>60.225601088444158</v>
-      </c>
-      <c r="H3">
-        <v>44.383095036341565</v>
-      </c>
-      <c r="J3">
-        <v>72.953904312579141</v>
-      </c>
-      <c r="K3">
-        <v>65.12247798031845</v>
-      </c>
-      <c r="L3">
-        <v>57.68650491992824</v>
-      </c>
-      <c r="M3">
-        <v>63.063223029729059</v>
-      </c>
-      <c r="N3">
-        <v>62.614716940589616</v>
-      </c>
-      <c r="P3">
-        <v>62.756988577997056</v>
-      </c>
-      <c r="Q3">
-        <v>54.798872316859182</v>
-      </c>
-      <c r="R3">
-        <v>46.53356096440622</v>
-      </c>
-      <c r="W3">
-        <v>49.527426804463431</v>
-      </c>
-      <c r="AA3">
-        <v>69.338481409115943</v>
-      </c>
-      <c r="AB3">
-        <v>67.677077953902625</v>
-      </c>
-      <c r="AC3">
-        <v>57.589444181934077</v>
-      </c>
-      <c r="AD3">
-        <v>74.580419142056826</v>
-      </c>
-      <c r="AE3">
-        <v>51.913795959619307</v>
-      </c>
-      <c r="AF3">
-        <v>62.728158185626455</v>
-      </c>
-      <c r="AG3">
-        <v>52.096568987263062</v>
-      </c>
-      <c r="AH3">
-        <v>69.638083085034737</v>
-      </c>
-      <c r="AI3">
-        <v>69.518131764345767</v>
-      </c>
-      <c r="AJ3">
-        <v>59.415144954068751</v>
-      </c>
-      <c r="AK3">
-        <v>64.719210266494471</v>
-      </c>
-      <c r="AL3">
-        <v>68.138730114201834</v>
-      </c>
-      <c r="AM3">
-        <v>68.907176213958238</v>
-      </c>
-      <c r="AN3">
-        <v>45.332565901272893</v>
-      </c>
       <c r="AO3">
-        <v>68.366425879398534</v>
+        <v>68.366425856810579</v>
       </c>
       <c r="AP3">
-        <v>56.771226731502708</v>
+        <v>56.771226697471548</v>
       </c>
       <c r="AQ3">
-        <v>54.100473292756298</v>
+        <v>54.100473278624925</v>
       </c>
       <c r="AS3">
-        <v>60.233397979572928</v>
+        <v>60.233397970056281</v>
       </c>
       <c r="AT3">
-        <v>65.82744817097857</v>
+        <v>65.827448132881571</v>
       </c>
       <c r="AU3">
-        <v>54.770315295687702</v>
+        <v>54.77031528387387</v>
       </c>
       <c r="AV3">
-        <v>49.76916581792802</v>
+        <v>49.769165787927413</v>
       </c>
       <c r="AW3">
-        <v>54.718453700379115</v>
+        <v>54.71845366879775</v>
       </c>
       <c r="AX3">
-        <v>59.001106943818144</v>
+        <v>59.001106909384134</v>
       </c>
       <c r="AY3">
-        <v>75.408500620622078</v>
+        <v>75.408500577362233</v>
       </c>
     </row>
   </sheetData>
